--- a/database.xlsx
+++ b/database.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="7200" yWindow="2955" windowWidth="21600" windowHeight="11835" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="27-06-2023" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="28-06-2023" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="07-08-2023" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="08-08-2023" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -18,18 +18,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -93,18 +88,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,126 +465,126 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="17.42578125" customWidth="1" min="2" max="2"/>
-    <col width="13.140625" customWidth="1" min="3" max="3"/>
+    <col width="17.44140625" customWidth="1" min="2" max="2"/>
+    <col width="13.109375" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Reg No</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Div</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Roll No </t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Check In</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Check Out</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>2022BEC001</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>SHANTANU</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="F2" s="4" t="n"/>
-      <c r="G2" s="4" t="n"/>
+      <c r="F2" s="3" t="n"/>
+      <c r="G2" s="3" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>2022BIT040</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>ASTHA</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="F3" s="4" t="n"/>
-      <c r="G3" s="4" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>2022BEC093</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>SAKSHI</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="F4" s="4" t="n"/>
-      <c r="G4" s="4" t="n"/>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -607,14 +599,14 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="13.28515625" customWidth="1" min="3" max="3"/>
+    <col width="17.44140625" customWidth="1" min="2" max="2"/>
+    <col width="13.109375" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -623,118 +615,122 @@
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Reg No</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Div</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Roll No </t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Check In</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Check Out</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>2022BEC001</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>SHANTANU</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>19:54:07</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>19:54:29</t>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>20:56:33</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>20:56:23</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>2022BIT040</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>ASTHA</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="3" t="n">
         <v>10</v>
       </c>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>2022BEC093</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>SAKSHI</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="3" t="n">
         <v>25</v>
       </c>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -750,123 +746,131 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="17.42578125" customWidth="1" min="2" max="2"/>
-    <col width="13.140625" customWidth="1" min="3" max="3"/>
+    <col width="17.44140625" customWidth="1" min="2" max="2"/>
+    <col width="13.109375" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Reg No</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Div</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Roll No </t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Check In</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Check Out</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>2022BEC001</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>SHANTANU</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="F2" s="4" t="n"/>
-      <c r="G2" s="4" t="n"/>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>16:38:10</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>00:55:46</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>2022BIT040</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>ASTHA</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="F3" s="4" t="n"/>
-      <c r="G3" s="4" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>2022BEC093</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>SAKSHI</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="F4" s="4" t="n"/>
-      <c r="G4" s="4" t="n"/>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
